--- a/spec/support/example1.xlsx
+++ b/spec/support/example1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="72">
   <si>
     <t xml:space="preserve">PROGRAMA HABLAME DE TI</t>
   </si>
@@ -39,13 +39,13 @@
     <t xml:space="preserve">HOSPITAL</t>
   </si>
   <si>
-    <t xml:space="preserve">FECHA ENCUESTA</t>
+    <t xml:space="preserve">FECHA ENCUESTA (mm/dd/aa)</t>
   </si>
   <si>
     <t xml:space="preserve">NOMBRE COMPLETO</t>
   </si>
   <si>
-    <t xml:space="preserve">FECHA DE NACIMIENTO</t>
+    <t xml:space="preserve">FECHA DE NACIMIENTO (mm/dd/aa)</t>
   </si>
   <si>
     <t xml:space="preserve">DIRECCION DOMICILIO</t>
@@ -196,12 +196,6 @@
   </si>
   <si>
     <t xml:space="preserve">REGISTRO 2015 PORTOVIEJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA ENCUESTA (mm/dd/aa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA DE NACIMIENTO (mm/dd/aa)</t>
   </si>
   <si>
     <t xml:space="preserve">SOLCA</t>
@@ -256,7 +250,7 @@
     <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="167" formatCode="MMM\-YY"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -321,6 +315,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -464,7 +465,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -501,11 +502,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,7 +538,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -553,14 +558,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -589,111 +594,111 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -777,30 +782,30 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.9336734693878"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="true" max="18" min="18" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="35.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,7 +964,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
@@ -996,7 +1001,7 @@
       <c r="L8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="N8" s="8" t="s">
@@ -1005,80 +1010,80 @@
       <c r="O8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="14" t="n">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="16" t="n">
         <v>37663</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="19"/>
+      <c r="R9" s="20"/>
       <c r="S9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="16" t="n">
         <v>37664</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="4"/>
@@ -1088,40 +1093,40 @@
       <c r="L10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="11"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="P10" s="4"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="20"/>
+      <c r="R10" s="21"/>
       <c r="S10" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="16" t="n">
         <v>37665</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="17" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="4"/>
@@ -1132,289 +1137,289 @@
         <v>27</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="N11" s="21"/>
+      <c r="N11" s="22"/>
       <c r="O11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="P11" s="4"/>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="16" t="n">
         <v>37666</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12" t="s">
         <v>49</v>
       </c>
       <c r="P12" s="4"/>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="20"/>
+      <c r="R12" s="21"/>
       <c r="S12" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="16" t="n">
         <v>37667</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="22" t="s">
+      <c r="K13" s="24"/>
+      <c r="L13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22" t="s">
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
       <c r="S13" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="11"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="23"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="11"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="12"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="20"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="23"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="19"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="20"/>
       <c r="S15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="24"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="11"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="19"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="20"/>
       <c r="S16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="26"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="27"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="23"/>
+      <c r="K17" s="24"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="11"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
       <c r="S17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
       <c r="S18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="11"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="12"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="19"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="20"/>
       <c r="S19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="16"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="12"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="19"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="20"/>
       <c r="S20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
       <c r="S21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="29"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="14"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="11"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="11"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="19"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="20"/>
       <c r="S22" s="4"/>
     </row>
   </sheetData>
@@ -1447,110 +1452,110 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.9387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="52.780612244898"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="48.7295918367347"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.2602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="52.1071428571429"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="48.1938775510204"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
     </row>
     <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
@@ -1571,7 +1576,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="32"/>
+      <c r="S5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
@@ -1594,7 +1599,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="32"/>
+      <c r="S6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
@@ -1623,103 +1628,103 @@
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="23"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="22"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="36"/>
+      <c r="K9" s="37"/>
       <c r="L9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="37"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="38"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S9" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="S9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1728,383 +1733,383 @@
       <c r="L10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="37"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="38"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="11"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="40"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="44"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="S10" s="17"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="43"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S12" s="17"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="44"/>
+        <v>58</v>
+      </c>
+      <c r="C13" s="45"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="29"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="11"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="12"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S13" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="S13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="36"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="37"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="38"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="11"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S14" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="S14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38" t="n">
+      <c r="A15" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="19" t="s">
+      <c r="B15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="S15" s="43"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="S15" s="44"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
+      <c r="A16" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="C16" s="15"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="36"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="37"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="38"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="11"/>
+      <c r="Q16" s="12"/>
       <c r="R16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S16" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="S16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="B17" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
       <c r="L17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="S17" s="17"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
+      <c r="A19" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="44"/>
+        <v>58</v>
+      </c>
+      <c r="C19" s="45"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="50"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="51"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="52"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="11"/>
+      <c r="Q19" s="12"/>
       <c r="R19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S19" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="S19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
+      <c r="A20" s="14" t="n">
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="44"/>
+        <v>58</v>
+      </c>
+      <c r="C20" s="45"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S20" s="17"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="M21" s="54"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" s="53"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S21" s="17"/>
+      <c r="S21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="C22" s="15"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="57"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="11"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="20"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="21"/>
       <c r="S22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="C23" s="15"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="56"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -2113,25 +2118,25 @@
       <c r="L23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M23" s="56"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="20"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="21"/>
       <c r="S23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="C24" s="15"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="56"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="11" t="s">
-        <v>73</v>
+      <c r="G24" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -2140,12 +2145,12 @@
       <c r="L24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M24" s="56"/>
-      <c r="N24" s="11"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="12"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="20"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="21"/>
       <c r="S24" s="4"/>
     </row>
   </sheetData>
